--- a/results/first_to_second/scf_values.xlsx
+++ b/results/first_to_second/scf_values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/first_to_second/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04A07115-FB56-2F40-BA93-40D7C62AF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E17D17-F6F7-CF45-8CDE-DD8D190E98D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="500" windowWidth="31980" windowHeight="19680"/>
+    <workbookView xWindow="31660" yWindow="500" windowWidth="31980" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scf_values" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>functional</t>
   </si>
@@ -142,12 +142,24 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>dG</t>
+  </si>
+  <si>
+    <t>Delta+correction</t>
+  </si>
+  <si>
+    <t>Ered+correction</t>
+  </si>
+  <si>
+    <t>error2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +290,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,9 +643,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1160,7 +1180,755 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scf_values!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scf_values!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>B2PLYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3PW91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B97D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>O3LYP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scf_values!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2594455719057893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2003261905890144E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1870494024974705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0400583758148638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61808042629003634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48067413478822929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.89089947364882049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2263027840096368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4043306829354245E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2193083614088744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1483274784203321</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7029864967627337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3075829585942587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.51573338798113233</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29238699481168351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.282856138367944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2466537083975457</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1668549098332459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5420820006707685</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4933100421875269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.77020402637809826</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.721720581074653</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.52688522055231712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.16858206897279238</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0796691976424215E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4278473588069391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65158211649717157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0061776467890611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0772665936620787</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48601003461497538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD8-E743-B60B-97BCF152FFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scf_values!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scf_values!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>B2PLYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3PW91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B97D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>O3LYP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scf_values!$J$2:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5385809711906515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32683836580805115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4053399243402436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3119555204487447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85892926807891556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71520991237023623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.65293504912687417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4661448009034541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3270280298432946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4346872545010636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3559510986721839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9259573937933596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5393975878112358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.29208220385924805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58640707565326466</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5102897187172197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4449437897573429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.403921355394731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.791992266515201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7559280708966534</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.5116677202165183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.972855363683347</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77486347105757614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6906110536975705E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26003961574695933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6774582983312167</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88230828636813574</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2447135124676625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3106322774471235</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72541666777038771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAD8-E743-B60B-97BCF152FFE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314776031"/>
+        <c:axId val="314777743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314776031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314777743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314777743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314776031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1703,20 +2471,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>568960</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>589280</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1736,6 +3007,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>651933</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2259EB0-665A-B679-CFB2-EA1FE619772E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2060,11 +3367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2073,7 +3380,7 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2092,8 +3399,20 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2104,19 +3423,34 @@
         <v>-2636.2499890899999</v>
       </c>
       <c r="D2">
-        <f>(B2-C2)*2625.5*1000</f>
+        <f t="shared" ref="D2:D31" si="0">(B2-C2)*2625.5*1000</f>
         <v>-609731.70600533008</v>
       </c>
       <c r="E2" s="1">
-        <f>-D2/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" ref="E2:E31" si="1">-D2/(96485*1)-1.24-3.25+0.2</f>
         <v>2.0294455719057893</v>
       </c>
       <c r="F2" s="1">
-        <f>E2-0.77</f>
+        <f t="shared" ref="F2:F31" si="2">E2-0.77</f>
         <v>1.2594455719057893</v>
       </c>
+      <c r="G2" s="2">
+        <v>-1.0258E-2</v>
+      </c>
+      <c r="H2">
+        <f>(B2-C2+G2)*2625.5*1000</f>
+        <v>-636664.08500533004</v>
+      </c>
+      <c r="I2" s="1">
+        <f>-H2/(96485*1)-1.24-3.25+0.2</f>
+        <v>2.3085809711906515</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2-0.77</f>
+        <v>1.5385809711906515</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2127,19 +3461,34 @@
         <v>-2639.1365574199999</v>
       </c>
       <c r="D3">
-        <f>(B3-C3)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-497091.03472498985</v>
       </c>
       <c r="E3" s="1">
-        <f>-D3/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.86200326190589016</v>
       </c>
       <c r="F3" s="1">
-        <f>E3-0.77</f>
+        <f t="shared" si="2"/>
         <v>9.2003261905890144E-2</v>
       </c>
+      <c r="G3" s="2">
+        <v>-8.6300000000000005E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="3">(B3-C3+G3)*2625.5*1000</f>
+        <v>-519749.09972498985</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I31" si="4">-H3/(96485*1)-1.24-3.25+0.2</f>
+        <v>1.0968383658080512</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J31" si="5">I3-0.77</f>
+        <v>0.32683836580805115</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2150,19 +3499,34 @@
         <v>-2638.4965553699999</v>
       </c>
       <c r="D4">
-        <f>(B4-C4)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-699231.56159996847</v>
       </c>
       <c r="E4" s="1">
-        <f>-D4/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.9570494024974705</v>
       </c>
       <c r="F4" s="1">
-        <f>E4-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.1870494024974705</v>
       </c>
+      <c r="G4" s="2">
+        <v>-8.0219999999999996E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-720293.32259996841</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1753399243402436</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4053399243402436</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2173,19 +3537,34 @@
         <v>-2638.7076704599999</v>
       </c>
       <c r="D5">
-        <f>(B5-C5)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-878019.13239049714</v>
       </c>
       <c r="E5" s="1">
-        <f>-D5/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>4.8100583758148643</v>
       </c>
       <c r="F5" s="1">
-        <f>E5-0.77</f>
+        <f t="shared" si="2"/>
         <v>4.0400583758148638</v>
       </c>
+      <c r="G5" s="2">
+        <v>-9.9919999999999991E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-904253.12839049718</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0819555204487452</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3119555204487447</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2196,19 +3575,34 @@
         <v>-2638.8025944999999</v>
       </c>
       <c r="D6">
-        <f>(B6-C6)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-547849.5899305942</v>
       </c>
       <c r="E6" s="1">
-        <f>-D6/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.3880804262900364</v>
       </c>
       <c r="F6" s="1">
-        <f>E6-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.61808042629003634</v>
       </c>
+      <c r="G6" s="2">
+        <v>-8.8509999999999995E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-571087.89043059421</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6289292680789156</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.85892926807891556</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2219,19 +3613,34 @@
         <v>-2637.80545471</v>
       </c>
       <c r="D7">
-        <f>(B7-C7)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-534591.94389504229</v>
       </c>
       <c r="E7" s="1">
-        <f>-D7/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.2506741347882293</v>
       </c>
       <c r="F7" s="1">
-        <f>E7-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.48067413478822929</v>
       </c>
+      <c r="G7" s="2">
+        <v>-8.6189999999999999E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-557221.12839504227</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4852099123702363</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.71520991237023623</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2242,19 +3651,34 @@
         <v>-2638.9734296199999</v>
       </c>
       <c r="D8">
-        <f>(B8-C8)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-402255.6642849936</v>
       </c>
       <c r="E8" s="1">
-        <f>-D8/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>-0.12089947364882042</v>
       </c>
       <c r="F8" s="1">
-        <f>E8-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.89089947364882049</v>
       </c>
+      <c r="G8" s="2">
+        <v>-8.7449999999999993E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-425215.6617849936</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11706495087312591</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.65293504912687417</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2265,19 +3689,34 @@
         <v>-2638.6082332199999</v>
       </c>
       <c r="D9">
-        <f>(B9-C9)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-703018.92411516979</v>
       </c>
       <c r="E9" s="1">
-        <f>-D9/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.9963027840096368</v>
       </c>
       <c r="F9" s="1">
-        <f>E9-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.2263027840096368</v>
       </c>
+      <c r="G9" s="2">
+        <v>-8.8140000000000007E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-726160.0811151698</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2361448009034541</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4661448009034541</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2288,19 +3727,34 @@
         <v>-2637.4276215300001</v>
       </c>
       <c r="D10">
-        <f>(B10-C10)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-497287.86845943023</v>
       </c>
       <c r="E10" s="1">
-        <f>-D10/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.86404330682935426</v>
       </c>
       <c r="F10" s="1">
-        <f>E10-0.77</f>
+        <f t="shared" si="2"/>
         <v>9.4043306829354245E-2</v>
       </c>
+      <c r="G10" s="2">
+        <v>-8.5620000000000002E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-519767.39945943031</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0970280298432946</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3270280298432946</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2311,19 +3765,34 @@
         <v>-2638.50996571</v>
       </c>
       <c r="D11">
-        <f>(B11-C11)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-605859.06725053524</v>
       </c>
       <c r="E11" s="1">
-        <f>-D11/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.9893083614088745</v>
       </c>
       <c r="F11" s="1">
-        <f>E11-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.2193083614088744</v>
       </c>
+      <c r="G11" s="2">
+        <v>-7.9150000000000002E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-626639.89975053514</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2046872545010636</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4346872545010636</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2334,19 +3803,34 @@
         <v>-2638.36402641</v>
       </c>
       <c r="D12">
-        <f>(B12-C12)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-599010.47675538575</v>
       </c>
       <c r="E12" s="1">
-        <f>-D12/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.9183274784203321</v>
       </c>
       <c r="F12" s="1">
-        <f>E12-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.1483274784203321</v>
       </c>
+      <c r="G12" s="2">
+        <v>-7.6299999999999996E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-619043.0417553857</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1259510986721839</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3559510986721839</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -2357,19 +3841,34 @@
         <v>-2638.3742410599998</v>
       </c>
       <c r="D13">
-        <f>(B13-C13)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-652526.75214015238</v>
       </c>
       <c r="E13" s="1">
-        <f>-D13/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.4729864967627337</v>
       </c>
       <c r="F13" s="1">
-        <f>E13-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.7029864967627337</v>
       </c>
+      <c r="G13" s="2">
+        <v>-8.1939999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-674040.09914015234</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6959573937933596</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9259573937933596</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2380,19 +3879,34 @@
         <v>-2638.4235526699999</v>
       </c>
       <c r="D14">
-        <f>(B14-C14)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-614376.24175996706</v>
       </c>
       <c r="E14" s="1">
-        <f>-D14/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.0775829585942587</v>
       </c>
       <c r="F14" s="1">
-        <f>E14-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.3075829585942587</v>
       </c>
+      <c r="G14" s="2">
+        <v>-8.5190000000000005E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-636742.8762599671</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3093975878112358</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5393975878112358</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2403,19 +3917,34 @@
         <v>-2638.8229127499999</v>
       </c>
       <c r="D15">
-        <f>(B15-C15)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-438453.56406064046</v>
       </c>
       <c r="E15" s="1">
-        <f>-D15/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.25426661201886774</v>
       </c>
       <c r="F15" s="1">
-        <f>E15-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.51573338798113233</v>
       </c>
+      <c r="G15" s="2">
+        <v>-8.2190000000000006E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-460032.54856064048</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47791779614075197</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.29208220385924805</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2426,19 +3955,34 @@
         <v>-2638.4532848600002</v>
       </c>
       <c r="D16">
-        <f>(B16-C16)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-516425.05919440533</v>
       </c>
       <c r="E16" s="1">
-        <f>-D16/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.0623869948116835</v>
       </c>
       <c r="F16" s="1">
-        <f>E16-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.29238699481168351</v>
       </c>
+      <c r="G16" s="2">
+        <v>-1.0805E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-544793.5866944053</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3564070756532647</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58640707565326466</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2449,19 +3993,34 @@
         <v>-2638.6561334899998</v>
       </c>
       <c r="D17">
-        <f>(B17-C17)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-708475.47451043106</v>
       </c>
       <c r="E17" s="1">
-        <f>-D17/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.052856138367944</v>
       </c>
       <c r="F17" s="1">
-        <f>E17-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.282856138367944</v>
       </c>
+      <c r="G17" s="2">
+        <v>-8.3580000000000008E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-730419.40351043094</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2802897187172197</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5102897187172197</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2472,19 +4031,34 @@
         <v>-2638.5019700900002</v>
       </c>
       <c r="D18">
-        <f>(B18-C18)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-704982.48305473721</v>
       </c>
       <c r="E18" s="1">
-        <f>-D18/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.0166537083975458</v>
       </c>
       <c r="F18" s="1">
-        <f>E18-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.2466537083975457</v>
       </c>
+      <c r="G18" s="2">
+        <v>-7.2870000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-724114.50155473722</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.214943789757343</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4449437897573429</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2495,19 +4069,34 @@
         <v>-2638.6605320899998</v>
       </c>
       <c r="D19">
-        <f>(B19-C19)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-890253.09597526072</v>
       </c>
       <c r="E19" s="1">
-        <f>-D19/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>4.9368549098332464</v>
       </c>
       <c r="F19" s="1">
-        <f>E19-0.77</f>
+        <f t="shared" si="2"/>
         <v>4.1668549098332459</v>
       </c>
+      <c r="G19" s="2">
+        <v>-8.7119999999999993E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-913126.45197526074</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1739213553947314</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>4.403921355394731</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2518,19 +4107,34 @@
         <v>-2638.7808306400002</v>
       </c>
       <c r="D20">
-        <f>(B20-C20)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-637001.8818347191</v>
       </c>
       <c r="E20" s="1">
-        <f>-D20/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.3120820006707685</v>
       </c>
       <c r="F20" s="1">
-        <f>E20-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.5420820006707685</v>
       </c>
+      <c r="G20" s="2">
+        <v>-9.1839999999999995E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-661114.47383471916</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5619922665152011</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>1.791992266515201</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2541,19 +4145,34 @@
         <v>-2638.54243967</v>
       </c>
       <c r="D21">
-        <f>(B21-C21)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-632296.11942046357</v>
       </c>
       <c r="E21" s="1">
-        <f>-D21/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.263310042187527</v>
       </c>
       <c r="F21" s="1">
-        <f>E21-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.4933100421875269</v>
       </c>
+      <c r="G21" s="2">
+        <v>-9.6509999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-657634.8199204636</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5259280708966534</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7559280708966534</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2564,19 +4183,34 @@
         <v>-2638.5843590600002</v>
       </c>
       <c r="D22">
-        <f>(B22-C22)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-413900.9645149092</v>
       </c>
       <c r="E22" s="1">
-        <f>-D22/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>-2.0402637809818769E-4</v>
       </c>
       <c r="F22" s="1">
-        <f>E22-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.77020402637809826</v>
       </c>
+      <c r="G22" s="2">
+        <v>-9.5010000000000008E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-438845.84001490922</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25833227978348178</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.5116677202165183</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2587,19 +4221,34 @@
         <v>-2645.07109593</v>
       </c>
       <c r="D23">
-        <f>(B23-C23)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-1812154.3102649879</v>
       </c>
       <c r="E23" s="1">
-        <f>-D23/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>14.491720581074652</v>
       </c>
       <c r="F23" s="1">
-        <f>E23-0.77</f>
+        <f t="shared" si="2"/>
         <v>13.721720581074653</v>
       </c>
+      <c r="G23" s="2">
+        <v>-9.2289999999999994E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-1836385.0497649878</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>14.742855363683347</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>13.972855363683347</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2610,19 +4259,34 @@
         <v>-2637.23660397</v>
       </c>
       <c r="D24">
-        <f>(B24-C24)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-539050.62050499034</v>
       </c>
       <c r="E24" s="1">
-        <f>-D24/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.2968852205523171</v>
       </c>
       <c r="F24" s="1">
-        <f>E24-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.52688522055231712</v>
       </c>
+      <c r="G24" s="2">
+        <v>-9.1129999999999996E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-562976.80200499028</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5448634710575762</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.77486347105757614</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2633,19 +4297,34 @@
         <v>-2637.2985951400001</v>
       </c>
       <c r="D25">
-        <f>(B25-C25)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-471948.45907516015</v>
       </c>
       <c r="E25" s="1">
-        <f>-D25/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.60141793102720764</v>
       </c>
       <c r="F25" s="1">
-        <f>E25-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.16858206897279238</v>
       </c>
+      <c r="G25" s="2">
+        <v>-8.6540000000000002E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-494669.53607516014</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83690611053697572</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>6.6906110536975705E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2656,19 +4335,34 @@
         <v>-2630.5510424499998</v>
       </c>
       <c r="D26">
-        <f>(B26-C26)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-492150.36882534536</v>
       </c>
       <c r="E26" s="1">
-        <f>-D26/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.81079669197642423</v>
       </c>
       <c r="F26" s="1">
-        <f>E26-0.77</f>
+        <f t="shared" si="2"/>
         <v>4.0796691976424215E-2</v>
       </c>
+      <c r="G26" s="2">
+        <v>-8.0569999999999999E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-513304.02232534537</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0300396157469593</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.26003961574695933</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2679,19 +4373,34 @@
         <v>-2638.8542234000001</v>
       </c>
       <c r="D27">
-        <f>(B27-C27)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-722464.95241448749</v>
       </c>
       <c r="E27" s="1">
-        <f>-D27/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.1978473588069392</v>
       </c>
       <c r="F27" s="1">
-        <f>E27-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.4278473588069391</v>
       </c>
+      <c r="G27" s="2">
+        <v>-9.1730000000000006E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-746548.66391448746</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4474582983312168</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6774582983312167</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2702,19 +4411,34 @@
         <v>-2638.8506010699998</v>
       </c>
       <c r="D28">
-        <f>(B28-C28)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-551082.00051022961</v>
       </c>
       <c r="E28" s="1">
-        <f>-D28/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.4215821164971716</v>
       </c>
       <c r="F28" s="1">
-        <f>E28-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.65158211649717157</v>
       </c>
+      <c r="G28" s="2">
+        <v>-8.4790000000000004E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-573343.61501022964</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6523082863681358</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88230828636813574</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2725,19 +4449,34 @@
         <v>-2638.6149621999998</v>
       </c>
       <c r="D29">
-        <f>(B29-C29)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-778265.15025044256</v>
       </c>
       <c r="E29" s="1">
-        <f>-D29/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.7761776467890611</v>
       </c>
       <c r="F29" s="1">
-        <f>E29-0.77</f>
+        <f t="shared" si="2"/>
         <v>3.0061776467890611</v>
       </c>
+      <c r="G29" s="2">
+        <v>-8.7659999999999995E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>-801280.28325044247</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0147135124676625</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2447135124676625</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2748,19 +4487,34 @@
         <v>-2638.6214019200002</v>
       </c>
       <c r="D30">
-        <f>(B30-C30)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-592154.16728948569</v>
       </c>
       <c r="E30" s="1">
-        <f>-D30/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.8472665936620787</v>
       </c>
       <c r="F30" s="1">
-        <f>E30-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.0772665936620787</v>
       </c>
+      <c r="G30" s="2">
+        <v>-8.5760000000000003E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-614670.45528948575</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0806322774471235</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3106322774471235</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2771,16 +4525,31 @@
         <v>-2638.49874572</v>
       </c>
       <c r="D31">
-        <f>(B31-C31)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-535106.77818982594</v>
       </c>
       <c r="E31" s="1">
-        <f>-D31/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.2560100346149754</v>
       </c>
       <c r="F31" s="1">
-        <f>E31-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.48601003461497538</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-8.7980000000000003E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-558205.92718982592</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4954166677703877</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72541666777038771</v>
       </c>
     </row>
   </sheetData>

--- a/results/first_to_second/scf_values.xlsx
+++ b/results/first_to_second/scf_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/first_to_second/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E17D17-F6F7-CF45-8CDE-DD8D190E98D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD2A9B-7581-7D42-BCEC-B24B110FDA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31660" yWindow="500" windowWidth="31980" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40680" yWindow="500" windowWidth="24020" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scf_values" sheetId="1" r:id="rId1"/>
@@ -976,10 +976,10 @@
                   <c:v>13.721720581074653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52688522055231712</c:v>
+                  <c:v>0.4942798766037797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.16858206897279238</c:v>
+                  <c:v>-0.23879205062741415</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.0796691976424215E-2</c:v>
@@ -1426,10 +1426,10 @@
                   <c:v>13.721720581074653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52688522055231712</c:v>
+                  <c:v>0.4942798766037797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.16858206897279238</c:v>
+                  <c:v>-0.23879205062741415</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.0796691976424215E-2</c:v>
@@ -1653,10 +1653,10 @@
                   <c:v>13.972855363683347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77486347105757614</c:v>
+                  <c:v>0.74225812710904049</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.6906110536975705E-2</c:v>
+                  <c:v>-3.3038711176460733E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.26003961574695933</c:v>
@@ -3370,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4253,37 +4253,37 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>-2637.44191748</v>
+        <v>-2637.4808551699998</v>
       </c>
       <c r="C24">
-        <v>-2637.23660397</v>
+        <v>-2637.2767398800002</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>-539050.62050499034</v>
+        <v>-535904.69389411574</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>1.2968852205523171</v>
+        <v>1.2642798766037797</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.52688522055231712</v>
+        <f>E24-0.77</f>
+        <v>0.4942798766037797</v>
       </c>
       <c r="G24" s="2">
         <v>-9.1129999999999996E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>-562976.80200499028</v>
+        <v>-559830.87539411581</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="4"/>
-        <v>1.5448634710575762</v>
+        <v>1.5122581271090405</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="5"/>
-        <v>0.77486347105757614</v>
+        <v>0.74225812710904049</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -4291,37 +4291,37 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>-2637.4783507900001</v>
+        <v>-2637.5179778800002</v>
       </c>
       <c r="C25">
-        <v>-2637.2985951400001</v>
+        <v>-2637.3408023900001</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-471948.45907516015</v>
+        <v>-465174.24899521394</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>0.60141793102720764</v>
+        <v>0.53120794937258586</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>-0.16858206897279238</v>
+        <v>-0.23879205062741415</v>
       </c>
       <c r="G25" s="2">
         <v>-8.6540000000000002E-3</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>-494669.53607516014</v>
+        <v>-487895.32599521393</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
-        <v>0.83690611053697572</v>
+        <v>0.76669612888235394</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="5"/>
-        <v>6.6906110536975705E-2</v>
+        <v>-3.3038711176460733E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -4557,6 +4557,7 @@
     <sortCondition ref="A1:A33"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>